--- a/dataset/region/sexo_edad_tarapaca.xlsx
+++ b/dataset/region/sexo_edad_tarapaca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269D9D7-AE65-441D-B4F6-E4B15521D197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4F143-E0D6-476E-8666-7DCD0CAAEFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81308E9D-2833-492D-9E68-326990DA0A54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81308E9D-2833-492D-9E68-326990DA0A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -189,22 +189,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,13 +524,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7014D740-AFDD-4882-8EAE-3853727E2AF0}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P25" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="U41" sqref="A1:U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -660,7 +660,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,7 +790,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,7 +855,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,7 +985,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>10885</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>11433</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>6041</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>8785</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>22318</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>

--- a/dataset/region/sexo_edad_tarapaca.xlsx
+++ b/dataset/region/sexo_edad_tarapaca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4F143-E0D6-476E-8666-7DCD0CAAEFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA3E1D8-1F4E-4E8A-85C9-76AB700D53DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81308E9D-2833-492D-9E68-326990DA0A54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="34">
   <si>
     <t>Tipo Participante</t>
   </si>
@@ -84,13 +84,67 @@
   </si>
   <si>
     <t>VICTIMARIO</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +162,6 @@
     <font>
       <b/>
       <sz val="7"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -124,6 +171,12 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="GobCL"/>
     </font>
   </fonts>
   <fills count="4">
@@ -142,7 +195,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1D89C8"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF1D89C8"/>
       </patternFill>
     </fill>
   </fills>
@@ -189,23 +242,21 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,2678 +573,2724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7014D740-AFDD-4882-8EAE-3853727E2AF0}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="U41" sqref="A1:U41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="S1" s="2">
-        <v>2020</v>
-      </c>
-      <c r="T1" s="2">
-        <v>2021</v>
-      </c>
-      <c r="U1" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>85</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>110</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>158</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>191</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>221</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>211</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>219</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>238</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>267</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>220</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>218</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>211</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="3">
         <v>218</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="3">
         <v>177</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="3">
         <v>212</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>136</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="3">
         <v>198</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>130</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>190</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>239</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>372</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>319</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>343</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>338</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>360</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>360</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>384</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>369</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>315</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>355</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="3">
         <v>257</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>279</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>186</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>201</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="3">
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>2068</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>2129</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>2676</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>3027</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>3490</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>3596</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>3896</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>3692</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>3787</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>3466</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>3444</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>3484</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>3314</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="3">
         <v>2987</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="3">
         <v>3012</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>2613</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="3">
         <v>3005</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="3">
         <v>3196</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>2960</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>2921</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>3349</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>3591</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>4329</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>4334</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>4781</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>4561</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>4422</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>4157</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>4223</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>4273</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>3898</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <v>3790</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>3745</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>3370</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>3823</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>4395</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>1529</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1453</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>1966</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>1957</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>2488</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>2648</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>2929</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>2563</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>2470</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>2245</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>2506</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>2445</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>2351</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <v>2195</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="3">
         <v>2147</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>1953</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="3">
         <v>2114</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>2215</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>170</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>180</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>236</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>220</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>256</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>345</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>346</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>333</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>312</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>282</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>274</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>317</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>384</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="3">
         <v>362</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="3">
         <v>354</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="3">
         <v>340</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="3">
         <v>385</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>6</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>9</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>5</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>5</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="3">
         <v>3</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>2</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="3">
         <v>6</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>6943</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>6983</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>8625</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>9360</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>11105</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>11484</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>12511</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>11747</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>11624</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>10763</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <v>11039</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>11050</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="4">
         <v>10525</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="4">
         <v>9768</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <v>9752</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="4">
         <v>8600</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="4">
         <v>9732</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="4">
         <v>10885</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:21" ht="18.75" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>92</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>128</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>164</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>207</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>208</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>193</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>230</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>266</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>248</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>228</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>193</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>187</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>165</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="3">
         <v>193</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="3">
         <v>181</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="3">
         <v>95</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="3">
         <v>166</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>134</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>174</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>239</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>283</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>320</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>275</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>266</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>298</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>413</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>377</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>296</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>261</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>257</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="3">
         <v>206</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="3">
         <v>235</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="3">
         <v>105</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="3">
         <v>139</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>1903</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>2090</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>2675</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>2596</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>3371</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>3639</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>4715</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>5025</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>4939</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>4095</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>3459</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>3387</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>3134</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="3">
         <v>2685</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="3">
         <v>2669</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="3">
         <v>1816</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="3">
         <v>2146</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="3">
         <v>2845</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>3048</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>2854</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>3481</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>3412</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>4415</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>4622</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>5691</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>6072</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>5405</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>4555</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>4471</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>4373</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>4070</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="3">
         <v>3632</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="3">
         <v>3741</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="3">
         <v>2845</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="3">
         <v>3271</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="3">
         <v>4390</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>2151</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>2113</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>2604</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>2446</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>3247</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>3601</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>4232</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>4252</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>3684</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>3211</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>3297</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>3259</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="3">
         <v>3002</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="3">
         <v>2789</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="3">
         <v>2792</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="3">
         <v>2095</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="3">
         <v>2405</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="3">
         <v>3067</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>253</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>250</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>345</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>310</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>425</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>456</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <v>510</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>554</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>474</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>432</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>537</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>496</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>565</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="3">
         <v>565</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="3">
         <v>602</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="3">
         <v>517</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="3">
         <v>569</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <v>709</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>9</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>5</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <v>3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>4</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>6</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <v>5</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="3">
         <v>6</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="3">
         <v>4</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="3">
         <v>3</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="3">
         <v>8</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>7581</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>7613</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>9511</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>9256</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>11988</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>12788</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>15653</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>16472</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>15165</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <v>12901</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="4">
         <v>12257</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="4">
         <v>11969</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="4">
         <v>11198</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="4">
         <v>10076</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="4">
         <v>10224</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="4">
         <v>7476</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="4">
         <v>8704</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="4">
         <v>11433</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:21" ht="18.75" thickBot="1">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>177</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>238</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>322</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>398</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>429</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>404</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <v>449</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>504</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <v>515</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="3">
         <v>448</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>411</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>398</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="3">
         <v>383</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="3">
         <v>370</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="3">
         <v>393</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="3">
         <v>231</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="3">
         <v>364</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>264</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>364</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>478</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>655</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>639</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>618</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="3">
         <v>604</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <v>658</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="3">
         <v>773</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="3">
         <v>761</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="3">
         <v>665</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>576</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="3">
         <v>612</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="3">
         <v>463</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="3">
         <v>514</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="3">
         <v>291</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="3">
         <v>340</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="3">
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>3971</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>4219</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>5351</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>5623</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>6861</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>7235</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <v>8611</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="3">
         <v>8717</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="3">
         <v>8726</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="3">
         <v>7561</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="3">
         <v>6903</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>6871</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="3">
         <v>6448</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="3">
         <v>5672</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="3">
         <v>5681</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="3">
         <v>4429</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="3">
         <v>5151</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="3">
         <v>6041</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>6008</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>5775</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>6830</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>7003</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>8744</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>8956</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="3">
         <v>10472</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="3">
         <v>10633</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="3">
         <v>9827</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="3">
         <v>8712</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <v>8694</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>8646</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="3">
         <v>7968</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="3">
         <v>7422</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="3">
         <v>7486</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="3">
         <v>6215</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="3">
         <v>7094</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="3">
         <v>8785</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>3680</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>3566</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>4570</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>4403</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>5735</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>6249</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <v>7161</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="3">
         <v>6815</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3">
         <v>6154</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="3">
         <v>5456</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="3">
         <v>5803</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>5704</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="3">
         <v>5353</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="3">
         <v>4984</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="3">
         <v>4939</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="3">
         <v>4048</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="3">
         <v>4519</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="3">
         <v>5282</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>423</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>430</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>581</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>530</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>681</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>801</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="3">
         <v>856</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <v>887</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="3">
         <v>786</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="3">
         <v>714</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="3">
         <v>811</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>813</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="3">
         <v>949</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="3">
         <v>927</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="3">
         <v>956</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="3">
         <v>857</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="3">
         <v>954</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="3">
         <v>1202</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>4</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="3">
         <v>9</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="3">
         <v>11</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="3">
         <v>5</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="3">
         <v>8</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="3">
         <v>12</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="3">
         <v>9</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>11</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="3">
         <v>10</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="3">
         <v>6</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="3">
         <v>7</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="3">
         <v>5</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="3">
         <v>14</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>14524</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>14596</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>18136</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>18616</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <v>23093</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>24272</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
         <v>28164</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <v>28219</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <v>26789</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="4">
         <v>23664</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="4">
         <v>23296</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="4">
         <v>23019</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="4">
         <v>21723</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="4">
         <v>19844</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="4">
         <v>19976</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="4">
         <v>16076</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="4">
         <v>18436</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="4">
         <v>22318</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:21" ht="18.75" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>12</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>7</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>14</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>14</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="3">
         <v>18</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="3">
         <v>12</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="3">
         <v>14</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="3">
         <v>9</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="3">
         <v>9</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="3">
         <v>26</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="3">
         <v>14</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="3">
         <v>2</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="3">
         <v>9</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="3">
         <v>1</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="3">
         <v>3</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="3">
         <v>4</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>64</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>91</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>93</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>162</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="3">
         <v>164</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="3">
         <v>189</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="3">
         <v>173</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="3">
         <v>183</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="3">
         <v>226</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="3">
         <v>308</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <v>255</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="3">
         <v>210</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="3">
         <v>185</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="3">
         <v>135</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="3">
         <v>88</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="3">
         <v>45</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>456</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>491</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>468</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>661</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <v>699</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="3">
         <v>747</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="3">
         <v>784</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="3">
         <v>877</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="3">
         <v>1087</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="3">
         <v>1156</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="3">
         <v>1075</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <v>1292</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="3">
         <v>1393</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="3">
         <v>1081</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="3">
         <v>1038</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="3">
         <v>805</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="3">
         <v>855</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="3">
         <v>846</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>357</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>404</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>478</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>660</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>658</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="3">
         <v>728</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="3">
         <v>717</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="3">
         <v>881</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="3">
         <v>1022</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="3">
         <v>978</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="3">
         <v>980</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <v>1118</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="3">
         <v>1278</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="3">
         <v>1061</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="3">
         <v>1004</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="3">
         <v>863</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="3">
         <v>941</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="3">
         <v>917</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>125</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>144</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>217</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>285</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>299</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="3">
         <v>325</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="3">
         <v>305</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="3">
         <v>388</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="3">
         <v>423</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="3">
         <v>382</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="3">
         <v>377</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>431</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="3">
         <v>470</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="3">
         <v>495</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="3">
         <v>452</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="3">
         <v>369</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="3">
         <v>397</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>9</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>11</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>9</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>16</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <v>11</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="3">
         <v>22</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="3">
         <v>33</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="3">
         <v>19</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="3">
         <v>22</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="3">
         <v>26</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="3">
         <v>25</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <v>21</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="3">
         <v>27</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="3">
         <v>27</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="3">
         <v>26</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="3">
         <v>22</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="3">
         <v>32</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="3">
         <v>1</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="3">
         <v>2</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>1016</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>1153</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>1273</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>1798</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="4">
         <v>1846</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="4">
         <v>2029</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="4">
         <v>2024</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="4">
         <v>2362</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="4">
         <v>2789</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="4">
         <v>2860</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="4">
         <v>2783</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="4">
         <v>3131</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="4">
         <v>3380</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="4">
         <v>2858</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="4">
         <v>2658</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="4">
         <v>2150</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="4">
         <v>2274</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="4">
         <v>2257</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:21" ht="18.75" thickBot="1">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>56</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>62</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>42</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>45</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>29</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <v>29</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="3">
         <v>37</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="3">
         <v>26</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="3">
         <v>49</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="3">
         <v>33</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="3">
         <v>25</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="3">
         <v>24</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="3">
         <v>9</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="3">
         <v>4</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="3">
         <v>5</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="3">
         <v>4</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="3">
         <v>6</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>417</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>566</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>479</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>743</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>737</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>698</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="3">
         <v>742</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="3">
         <v>769</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="3">
         <v>995</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="3">
         <v>1157</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="3">
         <v>1053</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="3">
         <v>868</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="3">
         <v>640</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="3">
         <v>569</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="3">
         <v>494</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="3">
         <v>296</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="3">
         <v>220</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>3179</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>3566</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>3028</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>3488</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>3717</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>4096</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="3">
         <v>3742</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="3">
         <v>3902</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="3">
         <v>4649</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="3">
         <v>4910</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="3">
         <v>4305</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="3">
         <v>4180</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="3">
         <v>4283</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="3">
         <v>3355</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="3">
         <v>3162</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="3">
         <v>2274</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="3">
         <v>2699</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="3">
         <v>3061</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>2323</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>2751</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>2559</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>3213</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>3443</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>3382</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="3">
         <v>3223</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="3">
         <v>3564</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="3">
         <v>4374</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="3">
         <v>4279</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="3">
         <v>4278</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="3">
         <v>3856</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="3">
         <v>4496</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="3">
         <v>3844</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="3">
         <v>3492</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="3">
         <v>2846</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="3">
         <v>3208</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="3">
         <v>3458</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>995</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>1220</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>1137</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>1473</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>1627</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>1641</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="3">
         <v>1496</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="3">
         <v>1689</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="3">
         <v>1866</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="3">
         <v>1885</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="3">
         <v>1802</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
         <v>1773</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="3">
         <v>2160</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="3">
         <v>2171</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="3">
         <v>1766</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="3">
         <v>1257</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="3">
         <v>1403</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="3">
         <v>1354</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>66</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>68</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>63</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>100</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>91</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>97</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="3">
         <v>81</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="3">
         <v>117</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="3">
         <v>116</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="3">
         <v>122</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="3">
         <v>105</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="3">
         <v>133</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="3">
         <v>134</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="3">
         <v>159</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="3">
         <v>141</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="3">
         <v>117</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="3">
         <v>134</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>8</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>2</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>6</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="3">
         <v>8</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="3">
         <v>1</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="3">
         <v>0</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="3">
         <v>4</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="3">
         <v>0</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="3">
         <v>0</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="3">
         <v>1</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="3">
         <v>0</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="3">
         <v>3</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="3">
         <v>1</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>7044</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="4">
         <v>8234</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="4">
         <v>7310</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="4">
         <v>9068</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="4">
         <v>9645</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4">
         <v>9945</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="4">
         <v>9329</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="4">
         <v>10067</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="4">
         <v>12050</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="4">
         <v>12386</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="4">
         <v>11572</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="4">
         <v>10834</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="4">
         <v>11722</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="4">
         <v>10103</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="4">
         <v>9060</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="4">
         <v>6797</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="4">
         <v>7671</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="4">
         <v>8402</v>
       </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
